--- a/FYP-results/AllModelResults.xlsx
+++ b/FYP-results/AllModelResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackyboy/Desktop/PythonCryptoPrediction/FYP-results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EA6AF02-4BF0-DC44-8B34-F7F33D1331D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC303457-7B18-C640-852F-7D6A1319EC85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1540" windowWidth="27240" windowHeight="15940" xr2:uid="{6F270219-5531-0744-B022-5636BB6B5744}"/>
+    <workbookView xWindow="1380" yWindow="560" windowWidth="14700" windowHeight="15940" xr2:uid="{6F270219-5531-0744-B022-5636BB6B5744}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -475,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FC039FE-70AB-1C44-B4FF-049EBE9C498E}">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H78" sqref="H78"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1325,7 +1325,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="E64" s="2">
-        <v>2.6100000000000002E-2</v>
+        <v>7.6100000000000001E-2</v>
       </c>
       <c r="F64" s="2">
         <v>2.6150237325914299E-2</v>
